--- a/data/trans_camb/P17G_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.596356556113598</v>
+        <v>-8.329729246944069</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.887449401406906</v>
+        <v>-10.40343361589976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.49621479907838</v>
+        <v>-9.947411359386935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.89012594919615</v>
+        <v>-16.24880835463838</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.29544098916725</v>
+        <v>-12.26931832657716</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.75167814580646</v>
+        <v>-20.06849345170114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.053665768079119</v>
+        <v>-8.321360989696258</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.468684976027813</v>
+        <v>-8.513673943624932</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.87294461005921</v>
+        <v>-11.71410602510518</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.33032958811214</v>
+        <v>19.91859834619039</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.38194955550658</v>
+        <v>16.20486928083404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.47589935652593</v>
+        <v>15.69847379422041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.819641131446039</v>
+        <v>9.027460561661647</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.20596205072196</v>
+        <v>10.4609744472243</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.011947970837191</v>
+        <v>1.441681439568814</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.37725823393803</v>
+        <v>11.23185304688162</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.439533365519193</v>
+        <v>8.596095039852578</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.95220809220339</v>
+        <v>5.215955533383378</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09506636024227362</v>
+        <v>-0.0993990207846842</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.121418995643185</v>
+        <v>-0.1276790523678598</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1428053275082534</v>
+        <v>-0.1209477916089703</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1880966785092537</v>
+        <v>-0.1841062837448282</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1403725296612874</v>
+        <v>-0.1368604234749937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2210457628874369</v>
+        <v>-0.2247191823536542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09558502838559364</v>
+        <v>-0.1000213256869607</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1015475455217148</v>
+        <v>-0.1024043531748637</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1520985166970577</v>
+        <v>-0.1416598210296562</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3212418730612496</v>
+        <v>0.302842809955895</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2600024414482697</v>
+        <v>0.2589952865418046</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2088710397482308</v>
+        <v>0.2415671706709724</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1138926037211643</v>
+        <v>0.1166594361960868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1316094440105303</v>
+        <v>0.1399664464162391</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.023205982638409</v>
+        <v>0.014776395912672</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1568246139200511</v>
+        <v>0.1524152849537102</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1272758394271563</v>
+        <v>0.11544391491136</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.05433946134447285</v>
+        <v>0.06919696615650292</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-23.42841211647239</v>
+        <v>-23.78357565458196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.63887706964658</v>
+        <v>-17.15277159358999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.69282143462844</v>
+        <v>-20.713132334697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.50742044158508</v>
+        <v>-10.65671007923567</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.766825676282961</v>
+        <v>-8.79479156508746</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.65646055770053</v>
+        <v>-19.6458098318363</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-13.93945284950349</v>
+        <v>-12.63357371948845</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.32415993560508</v>
+        <v>-10.27492919980373</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.03927018019209</v>
+        <v>-17.17894861602116</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8081078934029799</v>
+        <v>0.1508516574463469</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.095070684291341</v>
+        <v>4.647411897130274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.446085705970259</v>
+        <v>1.924886127192537</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.643993251717752</v>
+        <v>9.734550696658262</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.41091381120659</v>
+        <v>9.631501324232302</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.134175490260447</v>
+        <v>0.3313035986952394</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.103030126509324</v>
+        <v>2.386342655302979</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.363876096151413</v>
+        <v>3.697722897031283</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.318406470943295</v>
+        <v>-2.213149749101148</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2563069265013846</v>
+        <v>-0.2571052418612826</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1800781879490261</v>
+        <v>-0.1847837914910568</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2321624050996754</v>
+        <v>-0.2235046194303254</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1116550355285957</v>
+        <v>-0.1135842326640752</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09428363325017665</v>
+        <v>-0.09499709923301594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2114476380041571</v>
+        <v>-0.211871946243013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1540741608941563</v>
+        <v>-0.1395814707094417</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1124580361390193</v>
+        <v>-0.1110047564962731</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1972861567555567</v>
+        <v>-0.1857004119394249</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0088491166496588</v>
+        <v>0.0006953306265016408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05980663075593706</v>
+        <v>0.05514888336563346</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01532381913292324</v>
+        <v>0.02227083352886073</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1145905839606012</v>
+        <v>0.1152892779737923</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1260152810982265</v>
+        <v>0.1156140861485983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.002683715010840258</v>
+        <v>-0.004908921094472234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02273810368098369</v>
+        <v>0.02644773358443061</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05097092414935661</v>
+        <v>0.04399864680127893</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04118568165261036</v>
+        <v>-0.02629159867824868</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.50151838829208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.217514294897796</v>
+        <v>6.217514294897786</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.838977956402787</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.772903416502943</v>
+        <v>2.07253185709884</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.3224087675111</v>
+        <v>-1.314137597481785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1973261869616192</v>
+        <v>-0.09611259134676457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.704251278078458</v>
+        <v>-5.548137124821929</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.263785336705967</v>
+        <v>-6.435969073444321</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.921282413653572</v>
+        <v>-10.45556383474291</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6618307505583083</v>
+        <v>1.176267569170033</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.750344658063978</v>
+        <v>-1.523398428247457</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.471600999397007</v>
+        <v>-2.205988702815109</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.37483759723972</v>
+        <v>13.21160729661693</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.20534395768344</v>
+        <v>11.26793078154139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.65362882676174</v>
+        <v>12.6975512716031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.73543273397132</v>
+        <v>11.81544010467405</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.37471102911204</v>
+        <v>12.38681909971284</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.122190092431195</v>
+        <v>8.92289983544817</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.40725846299134</v>
+        <v>11.32090708199433</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.712452921613959</v>
+        <v>9.11286043970234</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.882052968013724</v>
+        <v>8.272280335446368</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.04961359457187026</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.06852648525754547</v>
+        <v>0.06852648525754534</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.01986201491774276</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02938055959695124</v>
+        <v>0.02158648536118141</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01373473368869334</v>
+        <v>-0.01332503380490193</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.002020104695223784</v>
+        <v>-0.0008660796484239274</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0586498454874753</v>
+        <v>-0.0578790958741589</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07400337137618983</v>
+        <v>-0.06647990426588278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1022414553997269</v>
+        <v>-0.1075735211611009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006977765239749341</v>
+        <v>0.01250528554099404</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01838770067647457</v>
+        <v>-0.01611201708470596</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01571739738043735</v>
+        <v>-0.02261497023018044</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1721758281308543</v>
+        <v>0.154211022197353</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1445484687540363</v>
+        <v>0.133123750565968</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.14632159808934</v>
+        <v>0.14812892953512</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1355251822734261</v>
+        <v>0.1363730455127803</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1340224879180015</v>
+        <v>0.1449063138593299</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1065921075690609</v>
+        <v>0.1022147462711108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1188725915693072</v>
+        <v>0.1298272259700111</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1118894769815129</v>
+        <v>0.1041393108476573</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1020160557795408</v>
+        <v>0.09505320048398846</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.9329648865089579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.06889281634315791</v>
+        <v>0.06889281634318012</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.191123292081935</v>
@@ -1297,7 +1297,7 @@
         <v>2.280682120810806</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.60792109668092</v>
+        <v>1.607921096680942</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.866983658881674</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.179916264195041</v>
+        <v>0.5590235472665039</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.412690455484302</v>
+        <v>-3.075763178307592</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.159791196530417</v>
+        <v>-5.402788967275524</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.908195798071906</v>
+        <v>3.135425187428778</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.769472294944487</v>
+        <v>-2.017898765256205</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.92770637260847</v>
+        <v>-2.431919727919105</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.679431969310917</v>
+        <v>2.412304943851211</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.362736280749693</v>
+        <v>-1.321615212787373</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.464361119374282</v>
+        <v>-2.690463639751222</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.526374677287802</v>
+        <v>7.266402829070142</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.304030868452162</v>
+        <v>4.872748427260647</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.223763136193572</v>
+        <v>4.647957988327116</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.09470145846553</v>
+        <v>10.4384886990619</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.026638867015501</v>
+        <v>6.748934505585952</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.142066667980281</v>
+        <v>6.252977646332902</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.526681287977246</v>
+        <v>7.353793162796276</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.604176152543459</v>
+        <v>4.616292234795057</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.091350332471189</v>
+        <v>3.994068419193848</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.009946415959685453</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.0007344720234298822</v>
+        <v>0.0007344720234301189</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06654323836286812</v>
@@ -1402,7 +1402,7 @@
         <v>0.02451315647180566</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01728220740523201</v>
+        <v>0.01728220740523224</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.05207135084933582</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01243935574222943</v>
+        <v>0.006209900266550737</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03498863598087176</v>
+        <v>-0.0323417168175717</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0536735519846118</v>
+        <v>-0.05708290260383683</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03018262088049449</v>
+        <v>0.03255383585968161</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01882915228413046</v>
+        <v>-0.02114078216910291</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03062121158455612</v>
+        <v>-0.02537473735979567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02822965438077223</v>
+        <v>0.02516731817978282</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0143155997334217</v>
+        <v>-0.01371929941521091</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02603273293749013</v>
+        <v>-0.02826340337642198</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0826116559977902</v>
+        <v>0.08028246478037741</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05798795619439871</v>
+        <v>0.05332581060929761</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04583749186846122</v>
+        <v>0.05070880394345936</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1122734860969403</v>
+        <v>0.1169846967771783</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0780512591666838</v>
+        <v>0.07474406506895336</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06853984877119031</v>
+        <v>0.07009445969828454</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0838562066267568</v>
+        <v>0.08047288300751985</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05086781256686107</v>
+        <v>0.05013066134479727</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.04474509009461604</v>
+        <v>0.04402121621800145</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.530619506085051</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.596621579359272</v>
+        <v>4.596621579359262</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.621557182877098</v>
@@ -1511,7 +1511,7 @@
         <v>-1.824958683700328</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.906319131916778</v>
+        <v>-1.906319131916767</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.479736353420525</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8777475582560976</v>
+        <v>0.7606679974060252</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.429491190293797</v>
+        <v>-3.491826433934625</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.197169717356838</v>
+        <v>0.7063106369942668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3960476860033911</v>
+        <v>-0.4860855079942468</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.393329829477816</v>
+        <v>-5.459316570930115</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.660655110901501</v>
+        <v>-4.917884413704299</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6169712568159372</v>
+        <v>0.3756770645539625</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.474270516588954</v>
+        <v>-3.636505513210945</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.499707364764376</v>
+        <v>-2.5531307983845</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.04655475454544</v>
+        <v>11.17279825090733</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.77095598759074</v>
+        <v>8.270195253339839</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.31955882875309</v>
+        <v>11.20984563685893</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.947299206455937</v>
+        <v>4.794378807109919</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.735178773639469</v>
+        <v>1.695504109105644</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.761072166506144</v>
+        <v>1.756167943457119</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.481414257214432</v>
+        <v>5.155317645518472</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.036665047639408</v>
+        <v>2.042507988758206</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.718465620982275</v>
+        <v>2.901768563935004</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.01618538495309027</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.04860652137898312</v>
+        <v>0.048606521378983</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.01661206377045</v>
@@ -1616,7 +1616,7 @@
         <v>-0.01869581310618763</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01952931128216068</v>
+        <v>-0.01952931128216057</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.02563511171553712</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.00924086788194594</v>
+        <v>0.008619339809812075</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03529681818517241</v>
+        <v>-0.03538407453202349</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.01219872488037129</v>
+        <v>0.007566255909949445</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.003977237503294323</v>
+        <v>-0.004834716563441218</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05433595283765888</v>
+        <v>-0.05515858370560507</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04743045416238399</v>
+        <v>-0.05015987371130193</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006288017218870875</v>
+        <v>0.003858467566894522</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.03582390920787258</v>
+        <v>-0.03733746489301854</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.02542119646156347</v>
+        <v>-0.02610888338668384</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1245008292476656</v>
+        <v>0.1258399249364572</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08731178494451762</v>
+        <v>0.09304969686306221</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1276870591079219</v>
+        <v>0.1276624949387699</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05251825371992574</v>
+        <v>0.05096132217766316</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01788835881437933</v>
+        <v>0.01788462279506829</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01845598777410437</v>
+        <v>0.01797413195979456</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05815093995780385</v>
+        <v>0.05481119479317511</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02147214230040587</v>
+        <v>0.02147277095680156</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.02875173005677224</v>
+        <v>0.03036126038699085</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-7.588760099947855</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-10.89986065094951</v>
+        <v>-10.89986065094955</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.075679310881339</v>
@@ -1725,7 +1725,7 @@
         <v>-0.2568301296603792</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.640929367805066</v>
+        <v>-1.640929367805077</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.1927392829706553</v>
@@ -1734,7 +1734,7 @@
         <v>-0.9933758487469579</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.514751415321836</v>
+        <v>-2.51475141532187</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-28.68969279900107</v>
+        <v>-29.51774959502237</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-17.80865162887851</v>
+        <v>-18.24708980445721</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-57.77993007161207</v>
+        <v>-54.56504638952519</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.913219088060575</v>
+        <v>-1.715902320237297</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.089977844010613</v>
+        <v>-3.700870970806199</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.616708852883349</v>
+        <v>-5.708000472502299</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.200259420555911</v>
+        <v>-3.058431216526306</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.01691238167427</v>
+        <v>-4.411420006672392</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.40664016308714</v>
+        <v>-7.688391516756443</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.6113645477998085</v>
+        <v>0.4975837241632134</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.816756136126213</v>
+        <v>4.37479776549795</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.586576127064883</v>
+        <v>6.701168213108437</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.81976282804573</v>
+        <v>3.986706162727818</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.778329578354039</v>
+        <v>2.779597972196327</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.807439768446353</v>
+        <v>1.920845027548194</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.814439265479409</v>
+        <v>2.812952626482747</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.13675093472133</v>
+        <v>1.96470227271414</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.334438979290266</v>
+        <v>0.9210939476763276</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.07854403674847828</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1128140887636379</v>
+        <v>-0.1128140887636382</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.01126313675140954</v>
@@ -1830,7 +1830,7 @@
         <v>-0.002689196345960211</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.01718171176300634</v>
+        <v>-0.01718171176300646</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.002016712670735419</v>
@@ -1839,7 +1839,7 @@
         <v>-0.01039411182864861</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.02631290811537115</v>
+        <v>-0.0263129081153715</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2904591771910676</v>
+        <v>-0.3042715959888725</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1806757550199712</v>
+        <v>-0.1903755451637016</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5959854073755748</v>
+        <v>-0.5681469066323914</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.01967312412711838</v>
+        <v>-0.0171976442385239</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04215589014127589</v>
+        <v>-0.03828772351837802</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.0582935824565548</v>
+        <v>-0.05928967126469679</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.03294746898566572</v>
+        <v>-0.03183177309435032</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04167993015322312</v>
+        <v>-0.04576301620613799</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07720807606270688</v>
+        <v>-0.07998890158505366</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.0002781452345288052</v>
+        <v>0.003004310660575408</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.04063757488420881</v>
+        <v>0.04429790300846995</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.07001647869337325</v>
+        <v>0.07155702385542918</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.04068440396249227</v>
+        <v>0.0425010026334885</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0296352596872565</v>
+        <v>0.02977457002975858</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0189486174898921</v>
+        <v>0.02021182667573225</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0300575542120393</v>
+        <v>0.02979586186697108</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.02274123519320087</v>
+        <v>0.02092089697241165</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.01267940588171168</v>
+        <v>0.009704415445224315</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.6232942318297297</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.44220743041259</v>
+        <v>-1.442207430412601</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.126310429914802</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3231995807505857</v>
+        <v>-0.2495778714090576</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.153012022968122</v>
+        <v>-2.27259006800771</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.919498090230074</v>
+        <v>-4.710664262124292</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.1310647354028972</v>
+        <v>0.2222861191095207</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.823549621031315</v>
+        <v>-2.052405372144705</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.206924795925894</v>
+        <v>-6.367327261721269</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.4915802803355945</v>
+        <v>0.5335945337793019</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.536321118693605</v>
+        <v>-1.549332366835785</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.880674090644135</v>
+        <v>-4.854207422806764</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.695197784175847</v>
+        <v>5.654815730477631</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.586445155583406</v>
+        <v>3.720380470818717</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.976231363071097</v>
+        <v>1.969301651338845</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.040103628817795</v>
+        <v>4.114045353640497</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.301273030268185</v>
+        <v>2.262321331193553</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.63227951665091</v>
+        <v>-1.637750009212018</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.796123623883953</v>
+        <v>3.853629995912845</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.887207088965458</v>
+        <v>1.842745926450652</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.9313655436207731</v>
+        <v>-0.8634228851863487</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.006873687464785355</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.01590466047944337</v>
+        <v>-0.01590466047944349</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.0226706144536251</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.003476649581654965</v>
+        <v>-0.00254493266649037</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02338141055999795</v>
+        <v>-0.02468070334632935</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05372118641414333</v>
+        <v>-0.05124735560220986</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.001395402492295801</v>
+        <v>0.002326963363344339</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01931782587971189</v>
+        <v>-0.02179839167551703</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.0658959103847437</v>
+        <v>-0.06696225480675787</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.00526453464395021</v>
+        <v>0.005586875207107475</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01646369377759639</v>
+        <v>-0.01650143443362643</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.05224092928190883</v>
+        <v>-0.05218054452337867</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.06440159471300334</v>
+        <v>0.06412605422290928</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.04041285393317028</v>
+        <v>0.04135978911870267</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.02211322975585042</v>
+        <v>0.02205644237750716</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.04385857694042776</v>
+        <v>0.04429850832513866</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02480473025037343</v>
+        <v>0.02441870841898048</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.01760662746197143</v>
+        <v>-0.01764400187310714</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04146589138754204</v>
+        <v>0.04195169435114196</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.02064270513255239</v>
+        <v>0.02022050702242366</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.01015129366674529</v>
+        <v>-0.009479157643202177</v>
       </c>
     </row>
     <row r="46">
